--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H2">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I2">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J2">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>45.85830968489478</v>
+        <v>48.68809454876522</v>
       </c>
       <c r="R2">
-        <v>412.7247871640531</v>
+        <v>438.192850938887</v>
       </c>
       <c r="S2">
-        <v>0.07624074852599254</v>
+        <v>0.1082003092761992</v>
       </c>
       <c r="T2">
-        <v>0.07624074852599251</v>
+        <v>0.1082003092761992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H3">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I3">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J3">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>111.0152648937092</v>
+        <v>52.49397359406522</v>
       </c>
       <c r="R3">
-        <v>999.137384043383</v>
+        <v>472.4457623465869</v>
       </c>
       <c r="S3">
-        <v>0.1845660459677964</v>
+        <v>0.1166581734334587</v>
       </c>
       <c r="T3">
-        <v>0.1845660459677963</v>
+        <v>0.1166581734334587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H4">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I4">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J4">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>45.6169118351599</v>
+        <v>25.35884646847678</v>
       </c>
       <c r="R4">
-        <v>410.552206516439</v>
+        <v>228.229618216291</v>
       </c>
       <c r="S4">
-        <v>0.07583941771195218</v>
+        <v>0.05635535866018864</v>
       </c>
       <c r="T4">
-        <v>0.07583941771195217</v>
+        <v>0.05635535866018863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H5">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I5">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J5">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>17.77110956914944</v>
+        <v>6.123940349274334</v>
       </c>
       <c r="R5">
-        <v>159.939986122345</v>
+        <v>55.115463143469</v>
       </c>
       <c r="S5">
-        <v>0.02954497679917029</v>
+        <v>0.01360932782277639</v>
       </c>
       <c r="T5">
-        <v>0.02954497679917028</v>
+        <v>0.01360932782277639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>21.34298110336545</v>
+        <v>47.92179384518656</v>
       </c>
       <c r="R6">
-        <v>192.086829930289</v>
+        <v>431.296144606679</v>
       </c>
       <c r="S6">
-        <v>0.03548331515656974</v>
+        <v>0.1064973473120021</v>
       </c>
       <c r="T6">
-        <v>0.03548331515656973</v>
+        <v>0.1064973473120021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
         <v>51.66777225528655</v>
@@ -883,10 +883,10 @@
         <v>465.0099502975791</v>
       </c>
       <c r="S7">
-        <v>0.08589914583596354</v>
+        <v>0.1148220933566193</v>
       </c>
       <c r="T7">
-        <v>0.08589914583596353</v>
+        <v>0.1148220933566193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>21.23063178694522</v>
+        <v>24.95972421752745</v>
       </c>
       <c r="R8">
-        <v>191.075686082507</v>
+        <v>224.6375179577471</v>
       </c>
       <c r="S8">
-        <v>0.03529653121186881</v>
+        <v>0.05546838307833511</v>
       </c>
       <c r="T8">
-        <v>0.0352965312118688</v>
+        <v>0.05546838307833511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.744019</v>
       </c>
       <c r="I9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>8.270877368276112</v>
+        <v>6.027555805130334</v>
       </c>
       <c r="R9">
-        <v>74.43789631448502</v>
+        <v>54.24800224617301</v>
       </c>
       <c r="S9">
-        <v>0.01375056965372117</v>
+        <v>0.01339513095221739</v>
       </c>
       <c r="T9">
-        <v>0.01375056965372117</v>
+        <v>0.01339513095221739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H10">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N10">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O10">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P10">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q10">
-        <v>32.15586124551578</v>
+        <v>67.36917467769867</v>
       </c>
       <c r="R10">
-        <v>289.402751209642</v>
+        <v>606.322572099288</v>
       </c>
       <c r="S10">
-        <v>0.05346003696389192</v>
+        <v>0.1497155640073031</v>
       </c>
       <c r="T10">
-        <v>0.05346003696389191</v>
+        <v>0.149715564007303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H11">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P11">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q11">
-        <v>77.84393883214022</v>
+        <v>72.63532716489865</v>
       </c>
       <c r="R11">
-        <v>700.595449489262</v>
+        <v>653.717944484088</v>
       </c>
       <c r="S11">
-        <v>0.1294177697685362</v>
+        <v>0.1614186165315698</v>
       </c>
       <c r="T11">
-        <v>0.1294177697685362</v>
+        <v>0.1614186165315698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H12">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N12">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O12">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P12">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q12">
-        <v>31.98659299698289</v>
+        <v>35.08875369210934</v>
       </c>
       <c r="R12">
-        <v>287.879336972846</v>
+        <v>315.798783228984</v>
       </c>
       <c r="S12">
-        <v>0.05317862367023792</v>
+        <v>0.07797828271549996</v>
       </c>
       <c r="T12">
-        <v>0.05317862367023791</v>
+        <v>0.07797828271549995</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H13">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N13">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q13">
-        <v>12.46110764681445</v>
+        <v>8.473628120583999</v>
       </c>
       <c r="R13">
-        <v>112.14996882133</v>
+        <v>76.26265308525601</v>
       </c>
       <c r="S13">
-        <v>0.02071694706987939</v>
+        <v>0.01883107547822365</v>
       </c>
       <c r="T13">
-        <v>0.02071694706987939</v>
+        <v>0.01883107547822365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H14">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N14">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O14">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P14">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q14">
-        <v>25.87335886275934</v>
+        <v>1.164316541621444</v>
       </c>
       <c r="R14">
-        <v>232.860229764834</v>
+        <v>10.478848874593</v>
       </c>
       <c r="S14">
-        <v>0.04301519746655966</v>
+        <v>0.002587478747451412</v>
       </c>
       <c r="T14">
-        <v>0.04301519746655965</v>
+        <v>0.002587478747451411</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H15">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>266.631241</v>
       </c>
       <c r="O15">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P15">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q15">
-        <v>62.63505583995266</v>
+        <v>1.255329508321444</v>
       </c>
       <c r="R15">
-        <v>563.715502559574</v>
+        <v>11.297965574893</v>
       </c>
       <c r="S15">
-        <v>0.104132567772734</v>
+        <v>0.002789738277966026</v>
       </c>
       <c r="T15">
-        <v>0.104132567772734</v>
+        <v>0.002789738277966026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H16">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N16">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O16">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P16">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q16">
-        <v>25.73716166670467</v>
+        <v>0.6064259588165557</v>
       </c>
       <c r="R16">
-        <v>231.634455000342</v>
+        <v>5.457833629349</v>
       </c>
       <c r="S16">
-        <v>0.04278876574141106</v>
+        <v>0.001347669833974454</v>
       </c>
       <c r="T16">
-        <v>0.04278876574141106</v>
+        <v>0.001347669833974454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H17">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N17">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q17">
-        <v>10.02649897982333</v>
+        <v>0.1464465823656667</v>
       </c>
       <c r="R17">
-        <v>90.23849081841</v>
+        <v>1.318019241291</v>
       </c>
       <c r="S17">
-        <v>0.01666934068371529</v>
+        <v>0.000325450516214736</v>
       </c>
       <c r="T17">
-        <v>0.01666934068371529</v>
+        <v>0.0003254505162147359</v>
       </c>
     </row>
   </sheetData>
